--- a/legislator/property/output/normal/林淑芬_2013-12-30_財產申報表_tmp63cf1.xlsx
+++ b/legislator/property/output/normal/林淑芬_2013-12-30_財產申報表_tmp63cf1.xlsx
@@ -18,9 +18,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市永和區永福段08230000地號</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>邱若山</t>
+  </si>
+  <si>
+    <t>80年06月13曰</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-30</t>
+  </si>
+  <si>
+    <t>林淑芬</t>
+  </si>
+  <si>
+    <t>tmp63cf1</t>
+  </si>
+  <si>
+    <t>建物標不</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,34 +116,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市永和區永福段0823-0000 地號</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>邱若山</t>
-  </si>
-  <si>
-    <t>80年06月 13曰</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標不</t>
-  </si>
-  <si>
-    <t>新北市永和區永福段02017-000 建號</t>
+    <t>新北市永和區永福段02017000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>80年06月 13日</t>
+    <t>80年06月13日</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -80,13 +134,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>toyota rav4 rod</t>
-  </si>
-  <si>
-    <t>林淑芬</t>
-  </si>
-  <si>
-    <t>100 年 03 月01曰</t>
+    <t>toyotarav4rod</t>
+  </si>
+  <si>
+    <t>100年03月01曰</t>
   </si>
   <si>
     <t>買賣</t>
@@ -119,10 +170,10 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>遠東國際商業銀行永和分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行美國中 信銀子行</t>
+    <t>遠東國際商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行美國中信銀子行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -131,7 +182,7 @@
     <t>邱〇由</t>
   </si>
   <si>
-    <t>1,420，000</t>
+    <t>1420000</t>
   </si>
 </sst>
 </file>
@@ -490,13 +541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,31 +569,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -560,25 +653,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -586,25 +679,25 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -622,22 +715,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -645,19 +738,19 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>989000</v>
@@ -678,13 +771,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -692,10 +785,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>2320000</v>
@@ -716,19 +809,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -736,16 +829,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
         <v>900000</v>
@@ -756,16 +849,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2">
         <v>1780000</v>
@@ -776,19 +869,19 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林淑芬_2013-12-30_財產申報表_tmp63cf1.xlsx
+++ b/legislator/property/output/normal/林淑芬_2013-12-30_財產申報表_tmp63cf1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -62,16 +62,22 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市永和區永福段08230000地號</t>
-  </si>
-  <si>
-    <t>5分之1</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>新北市永和區永福段02017000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>邱若山</t>
   </si>
   <si>
-    <t>80年06月13曰</t>
+    <t>80年06月13日</t>
   </si>
   <si>
     <t>第一次登記</t>
@@ -80,103 +86,31 @@
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-30</t>
+    <t>toyotarav4rod</t>
   </si>
   <si>
     <t>林淑芬</t>
   </si>
   <si>
-    <t>tmp63cf1</t>
-  </si>
-  <si>
-    <t>建物標不</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市永和區永福段02017000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>80年06月13日</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>toyotarav4rod</t>
-  </si>
-  <si>
     <t>100年03月01曰</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>幣</t>
-  </si>
-  <si>
-    <t>別</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>遠東國際商業銀行永和分行</t>
   </si>
   <si>
     <t>中國信託商業銀行美國中信銀子行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
   </si>
   <si>
     <t>邱〇由</t>
@@ -541,13 +475,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,52 +524,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1337</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -645,59 +538,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>113</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -707,52 +574,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2362</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
         <v>989000</v>
       </c>
     </row>
@@ -763,34 +607,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D1" s="1">
         <v>2320000</v>
       </c>
     </row>
@@ -801,7 +631,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -809,79 +639,59 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="F1" s="1">
+        <v>900000</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>900000</v>
+        <v>1780000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1780000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>54</v>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林淑芬_2013-12-30_財產申報表_tmp63cf1.xlsx
+++ b/legislator/property/output/normal/林淑芬_2013-12-30_財產申報表_tmp63cf1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -68,28 +68,49 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市永和區永福段08230000地號</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>邱若山</t>
+  </si>
+  <si>
+    <t>80年06月13曰</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-30</t>
+  </si>
+  <si>
+    <t>林淑芬</t>
+  </si>
+  <si>
+    <t>tmp63cf1</t>
+  </si>
+  <si>
     <t>新北市永和區永福段02017000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>邱若山</t>
-  </si>
-  <si>
     <t>80年06月13日</t>
   </si>
   <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
     <t>toyotarav4rod</t>
-  </si>
-  <si>
-    <t>林淑芬</t>
   </si>
   <si>
     <t>100年03月01曰</t>
@@ -475,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,6 +550,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -538,33 +612,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -574,29 +728,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1">
         <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1">
+        <v>989000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2">
         <v>989000</v>
       </c>
     </row>
@@ -607,20 +784,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1">
+        <v>2320000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2">
         <v>2320000</v>
       </c>
     </row>
@@ -631,7 +822,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -639,16 +830,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1">
         <v>900000</v>
@@ -656,42 +847,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
-        <v>1780000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1780000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林淑芬_2013-12-30_財產申報表_tmp63cf1.xlsx
+++ b/legislator/property/output/normal/林淑芬_2013-12-30_財產申報表_tmp63cf1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>80年06月13日</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>toyotarav4rod</t>
@@ -728,38 +731,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1">
-        <v>989000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -768,13 +792,34 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2">
         <v>989000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +837,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -806,7 +851,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -830,13 +875,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -850,13 +895,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -870,16 +915,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2">
         <v>1780000</v>
@@ -890,19 +935,19 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林淑芬_2013-12-30_財產申報表_tmp63cf1.xlsx
+++ b/legislator/property/output/normal/林淑芬_2013-12-30_財產申報表_tmp63cf1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -110,6 +110,9 @@
     <t>80年06月13日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
   </si>
   <si>
     <t>買賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -697,7 +703,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -742,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -783,7 +789,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -792,16 +798,16 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
         <v>989000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -837,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -851,7 +857,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -875,13 +881,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -895,13 +901,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -915,16 +921,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2">
         <v>1780000</v>
@@ -935,19 +941,19 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林淑芬_2013-12-30_財產申報表_tmp63cf1.xlsx
+++ b/legislator/property/output/normal/林淑芬_2013-12-30_財產申報表_tmp63cf1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -128,25 +128,37 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>遠東國際商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行美國中信銀子行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>遠東國際商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行美國中信銀子行</t>
-  </si>
-  <si>
     <t>邱〇由</t>
   </si>
   <si>
-    <t>1420000</t>
+    <t>deposit</t>
   </si>
 </sst>
 </file>
@@ -835,35 +847,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2320000</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>2320000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -873,41 +927,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1">
-        <v>900000</v>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -915,45 +990,108 @@
       <c r="F2" s="2">
         <v>900000</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2">
         <v>1780000</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1337</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>42</v>
+      <c r="F4" s="2">
+        <v>1420000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1337</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
